--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value80.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value80.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.446655610252138</v>
+        <v>4.359579086303711</v>
       </c>
       <c r="B1">
-        <v>1.512165849061452</v>
+        <v>3.689178943634033</v>
       </c>
       <c r="C1">
-        <v>1.701026267083461</v>
+        <v>0.8204050660133362</v>
       </c>
       <c r="D1">
-        <v>2.63783019263298</v>
+        <v>0.4964723289012909</v>
       </c>
       <c r="E1">
-        <v>2.727781188610557</v>
+        <v>0.1406157165765762</v>
       </c>
     </row>
   </sheetData>
